--- a/Config/Excel/MText.xlsx
+++ b/Config/Excel/MText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57189A9-6648-4E89-A35F-5B2816EA3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2242F-B92E-49FC-814D-AE96A4849176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24525" windowHeight="12975" xr2:uid="{E23836FB-0E06-491A-A503-6CD2273AAC75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E23836FB-0E06-491A-A503-6CD2273AAC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -66,13 +64,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Textの説明（コードでは使えません）</t>
     <rPh sb="5" eb="7">
       <t>セツメイ</t>
@@ -123,6 +114,113 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラパスは
+クラフトシードが
+毎日もらえるお得ぴ。
+ポイントをもって
+ギフト店へ行くと、
+ギフト券へ交換申請が
+出来るぴ！</t>
+    <rPh sb="15" eb="17">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・・・
+（いらっしゃいてぴ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空の設計図は
+自分で作った建築を
+コピーできるもぴ。
+設計図市場で販売や
+購入もできるもぴ。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンチク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>気に入った画像を
+タップしてみるすぴ。
+設計図が開くすぴ！
+マイショップは
+自分の設計図を
+販売できるすぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンバイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -237,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +686,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -605,48 +706,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +792,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -701,7 +802,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
